--- a/Datos/Ejemplo1/Ejemplo1.xlsx
+++ b/Datos/Ejemplo1/Ejemplo1.xlsx
@@ -1,41 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Documents\Maestría\Semestres\I Semestre\Diseño experimental\ANOVA software\Datos\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D417DA3-B32F-43AE-AF87-D34E444DA078}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="13884" yWindow="4848" windowWidth="9156" windowHeight="7512" xr2:uid="{D22B39BF-E5BB-459D-8F27-1D4EBC1DC015}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Datos" sheetId="1" r:id="rId1"/>
+    <sheet name="NormalDist" sheetId="2" r:id="rId2"/>
+    <sheet name="Datos definitivos" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Réplicas</t>
   </si>
   <si>
+    <t>Sin catalizador</t>
+  </si>
+  <si>
     <t>Catalizador B</t>
   </si>
   <si>
@@ -48,13 +41,28 @@
     <t>Catalizador E</t>
   </si>
   <si>
-    <t>Sin catalizador</t>
+    <t>Catalizador H</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,7 +88,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -90,24 +98,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -117,27 +136,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="juan david argüello plata" id="{13E110CF-F83D-4E4E-89D4-885111F966F3}" userId="f5ddd0814954c995" providerId="Windows Live"/>
-</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -183,7 +189,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -235,7 +241,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -429,46 +435,49 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{709A79F7-422C-46B7-87EB-9AE642BCCA54}">
-  <dimension ref="A1:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="14.5" customHeight="1">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -487,10 +496,13 @@
       <c r="F2" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1">
-        <f>+A2+1</f>
+        <f t="shared" ref="A3:A10" si="0">+A2+1</f>
         <v>2</v>
       </c>
       <c r="B3" s="2">
@@ -508,10 +520,13 @@
       <c r="F3" s="2">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1">
-        <f t="shared" ref="A4:A10" si="0">+A3+1</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -529,8 +544,11 @@
       <c r="F4" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -550,8 +568,11 @@
       <c r="F5" s="2">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -571,8 +592,11 @@
       <c r="F6" s="2">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -593,7 +617,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -614,7 +638,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -633,7 +657,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -650,5 +674,44 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Datos/Ejemplo1/Ejemplo1.xlsx
+++ b/Datos/Ejemplo1/Ejemplo1.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Documents\Maestría\Semestres\I Semestre\Diseño experimental (NO GITHUB!)\ANOVA software\Datos\Ejemplo1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F16A59-4850-4FAA-86CE-DAE941F0B0D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17460"/>
+    <workbookView xWindow="3708" yWindow="3444" windowWidth="9156" windowHeight="7512" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="NormalDist" sheetId="2" r:id="rId2"/>
-    <sheet name="Datos definitivos" sheetId="3" r:id="rId3"/>
+    <sheet name="NormalDist" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Réplicas</t>
   </si>
@@ -40,29 +48,11 @@
   <si>
     <t>Catalizador E</t>
   </si>
-  <si>
-    <t>Catalizador H</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.0</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>1.7</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -136,13 +126,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -435,26 +433,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.5" customHeight="1">
+    <row r="1" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -473,11 +471,9 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="G1" s="5"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -496,11 +492,8 @@
       <c r="F2" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f t="shared" ref="A3:A10" si="0">+A2+1</f>
         <v>2</v>
@@ -520,11 +513,8 @@
       <c r="F3" s="2">
         <v>2.4</v>
       </c>
-      <c r="G3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -544,11 +534,8 @@
       <c r="F4" s="2">
         <v>2.5</v>
       </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -568,11 +555,8 @@
       <c r="F5" s="2">
         <v>2.6</v>
       </c>
-      <c r="G5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -592,11 +576,8 @@
       <c r="F6" s="2">
         <v>2.2999999999999998</v>
       </c>
-      <c r="G6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -617,7 +598,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -638,7 +619,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -657,7 +638,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -674,44 +655,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
--- a/Datos/Ejemplo1/Ejemplo1.xlsx
+++ b/Datos/Ejemplo1/Ejemplo1.xlsx
@@ -1,78 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\juand\Documents\Maestría\Semestres\I Semestre\Diseño experimental (NO GITHUB!)\ANOVA software\Datos\Ejemplo1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67F16A59-4850-4FAA-86CE-DAE941F0B0D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="3708" yWindow="3444" windowWidth="9156" windowHeight="7512" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18000" windowWidth="28800" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" r:id="rId1"/>
-    <sheet name="NormalDist" sheetId="3" r:id="rId2"/>
+    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NormalDist" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Datos definitivos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Qs" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <t>Réplicas</t>
-  </si>
-  <si>
-    <t>Sin catalizador</t>
-  </si>
-  <si>
-    <t>Catalizador B</t>
-  </si>
-  <si>
-    <t>Catalizador C</t>
-  </si>
-  <si>
-    <t>Catalizador D</t>
-  </si>
-  <si>
-    <t>Catalizador E</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -114,34 +80,155 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="6">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4381500" cy="3286125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="1" name="Image 1"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>20</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4381500" cy="3286125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="2" name="Image 2"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>39</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4381500" cy="3286125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="3" name="Image 3"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>57</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4381500" cy="3286125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="4" name="Image 4"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>77</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="4381500" cy="3286125"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr descr="Picture" id="5" name="Image 5"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -440,234 +527,1139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col customWidth="1" max="2" min="2" width="13.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="14.55" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="4" t="s">
+    <row customHeight="1" ht="14.5" r="1">
+      <c r="A1" s="3" t="inlineStr">
+        <is>
+          <t>Réplicas</t>
+        </is>
+      </c>
+      <c r="B1" s="4" t="inlineStr">
+        <is>
+          <t>Sin catalizador</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Catalizador B</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Catalizador C</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Catalizador D</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Catalizador E</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C2" s="2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D2" s="2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2" s="2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <f>+A2+1</f>
+        <v/>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E3" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="5"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C2" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="D2" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="E2" s="2">
+      <c r="F3" s="2" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1">
+        <f>+A3+1</f>
+        <v/>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C4" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D4" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F4" s="2" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1">
+        <f>+A4+1</f>
+        <v/>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C5" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D5" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F5" s="2" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1">
+        <f>+A5+1</f>
+        <v/>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D6" s="2" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E6" s="2" t="n">
         <v>1.9</v>
       </c>
-      <c r="F2" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <f t="shared" ref="A3:A10" si="0">+A2+1</f>
+      <c r="F6" s="2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1">
+        <f>+A6+1</f>
+        <v/>
+      </c>
+      <c r="B7" s="2" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D7" s="2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1">
+        <f>+A7+1</f>
+        <v/>
+      </c>
+      <c r="B8" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1">
+        <f>+A8+1</f>
+        <v/>
+      </c>
+      <c r="B9" s="2" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D9" s="2" t="n"/>
+      <c r="E9" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C3" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D3" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E3" s="2">
-        <v>2</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F9" s="2" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1">
+        <f>+A9+1</f>
+        <v/>
+      </c>
+      <c r="B10" s="2" t="n">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C4" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D4" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E4" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F4" s="2">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="C5" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="D5" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="F5" s="2">
-        <v>2.6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="C6" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="E6" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="B7" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="D7" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="E7" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="F7" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C8" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="D8" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="E8" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="F8" s="2">
-        <v>2.1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2">
-        <v>2</v>
-      </c>
-      <c r="F9" s="2">
-        <v>2.2000000000000002</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2">
+      <c r="C10" s="2" t="n"/>
+      <c r="D10" s="2" t="n"/>
+      <c r="E10" s="2" t="n">
         <v>1.7</v>
       </c>
-      <c r="F10" s="2"/>
+      <c r="F10" s="2" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Sin catalizador</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Datos</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Orden</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Fracción</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B3" t="n">
+        <v>4</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5349893253491103</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1143801056032682</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.06317048360973787</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.053362163705303</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-0.3966745926085422</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-0.08083464473072335</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.068520312162045</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-0.1939481203425375</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Catalizador B</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Datos</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Orden</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Fracción</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.8827626469271108</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="D24" t="n">
+        <v>-0.2543017427842117</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="D25" t="n">
+        <v>-0.09182951332164901</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B26" t="n">
+        <v>5</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="D26" t="n">
+        <v>-0.7897392777809171</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.592950593433787</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="B28" t="n">
+        <v>7</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.533257657447848</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B29" t="n">
+        <v>5</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.5625</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.4947861646937505</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Catalizador C</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Datos</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Orden</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Fracción</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B42" t="n">
+        <v>5</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.3806767858722996</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B43" t="n">
+        <v>2</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.3406033777816434</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D44" t="n">
+        <v>1.281603249724474</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.07142857142857142</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.864102656720608</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="B46" t="n">
+        <v>5</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.6428571428571429</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.1986172162754836</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="B47" t="n">
+        <v>2</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.2142857142857143</v>
+      </c>
+      <c r="D47" t="n">
+        <v>1.215398924678973</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Catalizador D</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Datos</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Orden</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Fracción</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>2</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D60" t="n">
+        <v>1.303181691725414</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B61" t="n">
+        <v>2</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D61" t="n">
+        <v>-0.4085253509768638</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B62" t="n">
+        <v>8</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.6541294751363674</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="D63" t="n">
+        <v>1.157582209894333</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="B64" t="n">
+        <v>2</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.1666666666666667</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.6516927668120946</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B65" t="n">
+        <v>9</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.9444444444444444</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.4233479081709486</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>2</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6</v>
+      </c>
+      <c r="C66" t="n">
+        <v>0.6111111111111112</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.07456480451990322</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1</v>
+      </c>
+      <c r="C67" t="n">
+        <v>0.05555555555555555</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.09374930242995937</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Catalizador E</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Datos</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>Orden</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Fracción</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Z</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.6875</v>
+      </c>
+      <c r="D80" t="n">
+        <v>1.052001539072446</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="B81" t="n">
+        <v>7</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.8125</v>
+      </c>
+      <c r="D81" t="n">
+        <v>2.156716359880583</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="B82" t="n">
+        <v>8</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.9375</v>
+      </c>
+      <c r="D82" t="n">
+        <v>2.02819139540123</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="B83" t="n">
+        <v>4</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.4375</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.4664817729927965</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B84" t="n">
+        <v>2</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.3621082934190793</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.2171802040412181</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="B86" t="n">
+        <v>2</v>
+      </c>
+      <c r="C86" t="n">
+        <v>0.1875</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.1760024268539799</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Réplicas</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Sin catalizador</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Catalizador B</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Catalizador C</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Catalizador D</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Catalizador E</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F2" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C3" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2.4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="E5" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="F5" t="n">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C6" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="F7" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C8" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>2.1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>2.2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>1.7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/Datos/Ejemplo1/Ejemplo1.xlsx
+++ b/Datos/Ejemplo1/Ejemplo1.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="18000" windowWidth="28800" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="12576" windowWidth="23256" xWindow="-108" yWindow="-108"/>
   </bookViews>
   <sheets>
-    <sheet name="Datos" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="NormalDist" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Datos definitivos" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Qs" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="NormalDist" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Datos definitivos" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Qs" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -102,7 +102,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
   <oneCellAnchor>
     <from>
       <col>5</col>
@@ -117,13 +117,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId1"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId1"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -142,13 +142,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId2"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId2"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -167,13 +167,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId3"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId3"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -192,13 +192,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId4"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId4"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -217,13 +217,13 @@
         <cNvPicPr/>
       </nvPicPr>
       <blipFill>
-        <a:blip cstate="print" r:embed="rId5"/>
-        <a:stretch>
+        <a:blip xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" cstate="print" r:embed="rId5"/>
+        <a:stretch xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:fillRect/>
         </a:stretch>
       </blipFill>
       <spPr>
-        <a:prstGeom prst="rect"/>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect"/>
       </spPr>
     </pic>
     <clientData/>
@@ -535,15 +535,15 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="2" min="2" width="13.5"/>
+    <col customWidth="1" max="2" min="2" width="13.44140625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="14.5" r="1">
+    <row customHeight="1" ht="14.55" r="1">
       <c r="A1" s="3" t="inlineStr">
         <is>
           <t>Réplicas</t>
@@ -762,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
@@ -815,7 +815,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D3" t="n">
-        <v>0.5349893253491103</v>
+        <v>0.6499667618086262</v>
       </c>
     </row>
     <row r="4">
@@ -829,7 +829,7 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="D4" t="n">
-        <v>0.1143801056032682</v>
+        <v>0.6111311471284483</v>
       </c>
     </row>
     <row r="5">
@@ -843,7 +843,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="D5" t="n">
-        <v>0.06317048360973787</v>
+        <v>0.1968743795115772</v>
       </c>
     </row>
     <row r="6">
@@ -857,7 +857,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D6" t="n">
-        <v>1.053362163705303</v>
+        <v>-0.64134776404094</v>
       </c>
     </row>
     <row r="7">
@@ -871,7 +871,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3966745926085422</v>
+        <v>-0.6752909282408222</v>
       </c>
     </row>
     <row r="8">
@@ -885,7 +885,7 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.08083464473072335</v>
+        <v>1.846539399239617</v>
       </c>
     </row>
     <row r="9">
@@ -899,7 +899,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="D9" t="n">
-        <v>1.068520312162045</v>
+        <v>-0.7184022732461507</v>
       </c>
     </row>
     <row r="10">
@@ -913,7 +913,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1939481203425375</v>
+        <v>0.4810301027166942</v>
       </c>
     </row>
     <row r="21">
@@ -956,7 +956,7 @@
         <v>0.1875</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.8827626469271108</v>
+        <v>-0.4120194674223931</v>
       </c>
     </row>
     <row r="24">
@@ -970,7 +970,7 @@
         <v>0.1875</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2543017427842117</v>
+        <v>1.833458356927308</v>
       </c>
     </row>
     <row r="25">
@@ -984,7 +984,7 @@
         <v>0.0625</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.09182951332164901</v>
+        <v>0.5949751933637328</v>
       </c>
     </row>
     <row r="26">
@@ -998,7 +998,7 @@
         <v>0.5625</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.7897392777809171</v>
+        <v>-0.5496563056144705</v>
       </c>
     </row>
     <row r="27">
@@ -1012,7 +1012,7 @@
         <v>0.1875</v>
       </c>
       <c r="D27" t="n">
-        <v>1.592950593433787</v>
+        <v>0.04452458972203299</v>
       </c>
     </row>
     <row r="28">
@@ -1026,7 +1026,7 @@
         <v>0.8125</v>
       </c>
       <c r="D28" t="n">
-        <v>1.533257657447848</v>
+        <v>-0.1246291526962624</v>
       </c>
     </row>
     <row r="29">
@@ -1040,7 +1040,7 @@
         <v>0.5625</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4947861646937505</v>
+        <v>0.06970264113877361</v>
       </c>
     </row>
     <row r="40">
@@ -1083,7 +1083,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3806767858722996</v>
+        <v>-0.6655412572777254</v>
       </c>
     </row>
     <row r="43">
@@ -1097,7 +1097,7 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="D43" t="n">
-        <v>0.3406033777816434</v>
+        <v>-0.256743994425348</v>
       </c>
     </row>
     <row r="44">
@@ -1111,7 +1111,7 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="D44" t="n">
-        <v>1.281603249724474</v>
+        <v>-0.1994988897008038</v>
       </c>
     </row>
     <row r="45">
@@ -1125,7 +1125,7 @@
         <v>0.07142857142857142</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.864102656720608</v>
+        <v>-2.175888703050808</v>
       </c>
     </row>
     <row r="46">
@@ -1139,7 +1139,7 @@
         <v>0.6428571428571429</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1986172162754836</v>
+        <v>0.08802293136875705</v>
       </c>
     </row>
     <row r="47">
@@ -1153,7 +1153,7 @@
         <v>0.2142857142857143</v>
       </c>
       <c r="D47" t="n">
-        <v>1.215398924678973</v>
+        <v>-1.424322570137297</v>
       </c>
     </row>
     <row r="58">
@@ -1196,7 +1196,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="D60" t="n">
-        <v>1.303181691725414</v>
+        <v>0.7762124498994656</v>
       </c>
     </row>
     <row r="61">
@@ -1210,7 +1210,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="D61" t="n">
-        <v>-0.4085253509768638</v>
+        <v>1.643832720700798</v>
       </c>
     </row>
     <row r="62">
@@ -1224,7 +1224,7 @@
         <v>0.8333333333333334</v>
       </c>
       <c r="D62" t="n">
-        <v>0.6541294751363674</v>
+        <v>3.019019820202858</v>
       </c>
     </row>
     <row r="63">
@@ -1238,7 +1238,7 @@
         <v>0.3888888888888889</v>
       </c>
       <c r="D63" t="n">
-        <v>1.157582209894333</v>
+        <v>-0.3697359516482772</v>
       </c>
     </row>
     <row r="64">
@@ -1252,7 +1252,7 @@
         <v>0.1666666666666667</v>
       </c>
       <c r="D64" t="n">
-        <v>0.6516927668120946</v>
+        <v>0.7839483194685148</v>
       </c>
     </row>
     <row r="65">
@@ -1266,7 +1266,7 @@
         <v>0.9444444444444444</v>
       </c>
       <c r="D65" t="n">
-        <v>0.4233479081709486</v>
+        <v>0.7163104314409087</v>
       </c>
     </row>
     <row r="66">
@@ -1280,7 +1280,7 @@
         <v>0.6111111111111112</v>
       </c>
       <c r="D66" t="n">
-        <v>0.07456480451990322</v>
+        <v>-0.3238564962640573</v>
       </c>
     </row>
     <row r="67">
@@ -1294,7 +1294,7 @@
         <v>0.05555555555555555</v>
       </c>
       <c r="D67" t="n">
-        <v>0.09374930242995937</v>
+        <v>-0.02586687243715717</v>
       </c>
     </row>
     <row r="78">
@@ -1337,7 +1337,7 @@
         <v>0.6875</v>
       </c>
       <c r="D80" t="n">
-        <v>1.052001539072446</v>
+        <v>-1.344462269378635</v>
       </c>
     </row>
     <row r="81">
@@ -1351,7 +1351,7 @@
         <v>0.8125</v>
       </c>
       <c r="D81" t="n">
-        <v>2.156716359880583</v>
+        <v>-0.6124720076225585</v>
       </c>
     </row>
     <row r="82">
@@ -1365,7 +1365,7 @@
         <v>0.9375</v>
       </c>
       <c r="D82" t="n">
-        <v>2.02819139540123</v>
+        <v>2.161748631756296</v>
       </c>
     </row>
     <row r="83">
@@ -1379,7 +1379,7 @@
         <v>0.4375</v>
       </c>
       <c r="D83" t="n">
-        <v>0.4664817729927965</v>
+        <v>1.54810761429075</v>
       </c>
     </row>
     <row r="84">
@@ -1393,7 +1393,7 @@
         <v>0.1875</v>
       </c>
       <c r="D84" t="n">
-        <v>0.3621082934190793</v>
+        <v>-0.03443720093579009</v>
       </c>
     </row>
     <row r="85">
@@ -1407,7 +1407,7 @@
         <v>0.0625</v>
       </c>
       <c r="D85" t="n">
-        <v>0.2171802040412181</v>
+        <v>0.4963591422010159</v>
       </c>
     </row>
     <row r="86">
@@ -1421,12 +1421,12 @@
         <v>0.1875</v>
       </c>
       <c r="D86" t="n">
-        <v>0.1760024268539799</v>
+        <v>-0.8120716657280921</v>
       </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
-  <drawing r:id="rId1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
 
